--- a/data/TC002.xlsx
+++ b/data/TC002.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
+  <xr:revisionPtr documentId="13_ncr:1_{DA6FB933-BD5D-47E6-A2D0-ABDFAE894347}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7980"/>
+    <workbookView windowHeight="11040" windowWidth="19440" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
+    <sheet name="Sheet2" r:id="rId2" sheetId="2"/>
+    <sheet name="Sheet3" r:id="rId3" sheetId="3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="8">
   <si>
     <t>UserName</t>
   </si>
@@ -30,32 +31,24 @@
     <t>crmsfa</t>
   </si>
   <si>
-    <t>Error Message</t>
-  </si>
-  <si>
-    <t>password was empty reenter</t>
-  </si>
-  <si>
-    <t>username was empty reenter</t>
-  </si>
-  <si>
     <t>DemoSalesManager1</t>
   </si>
   <si>
-    <t>User not found.</t>
-  </si>
-  <si>
     <t>crmsfa1</t>
   </si>
   <si>
-    <t>Password incorrect.</t>
+    <t>Dfdhghfhj</t>
+  </si>
+  <si>
+    <t>Vaibhav</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,18 +96,26 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -123,10 +124,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -161,7 +162,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -193,9 +194,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -227,6 +246,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -282,7 +319,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -291,13 +328,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -307,7 +344,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -316,7 +353,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -325,7 +362,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -335,12 +372,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -371,7 +408,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -390,7 +427,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -402,95 +439,162 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.28515625" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>